--- a/arXiv_scraping/ComputerScience_articles.xlsx
+++ b/arXiv_scraping/ComputerScience_articles.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="800">
   <si>
     <t>Title</t>
   </si>
@@ -477,6 +477,51 @@
   </si>
   <si>
     <t>150</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>165</t>
   </si>
   <si>
     <t>Seamless Human Motion Composition with Blended Positional Encodings</t>
@@ -2440,19 +2485,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="C2" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="D2" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="E2" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="F2" t="s">
-        <v>635</v>
+        <v>650</v>
       </c>
     </row>
     <row r="3">
@@ -2460,19 +2505,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="C3" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="D3" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="E3" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="F3" t="s">
-        <v>636</v>
+        <v>651</v>
       </c>
     </row>
     <row r="4">
@@ -2480,19 +2525,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="C4" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="D4" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="E4" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="F4" t="s">
-        <v>637</v>
+        <v>652</v>
       </c>
     </row>
     <row r="5">
@@ -2500,19 +2545,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="C5" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="D5" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="E5" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="F5" t="s">
-        <v>638</v>
+        <v>653</v>
       </c>
     </row>
     <row r="6">
@@ -2520,19 +2565,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="C6" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="D6" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="E6" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="F6" t="s">
-        <v>639</v>
+        <v>654</v>
       </c>
     </row>
     <row r="7">
@@ -2540,19 +2585,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="C7" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="D7" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="E7" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="F7" t="s">
-        <v>640</v>
+        <v>655</v>
       </c>
     </row>
     <row r="8">
@@ -2560,19 +2605,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="C8" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="D8" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="E8" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="F8" t="s">
-        <v>641</v>
+        <v>656</v>
       </c>
     </row>
     <row r="9">
@@ -2580,19 +2625,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="C9" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="D9" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="E9" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="F9" t="s">
-        <v>642</v>
+        <v>657</v>
       </c>
     </row>
     <row r="10">
@@ -2600,19 +2645,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="C10" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="D10" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="E10" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="F10" t="s">
-        <v>643</v>
+        <v>658</v>
       </c>
     </row>
     <row r="11">
@@ -2620,19 +2665,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="C11" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="D11" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="E11" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="F11" t="s">
-        <v>644</v>
+        <v>659</v>
       </c>
     </row>
     <row r="12">
@@ -2640,19 +2685,19 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="C12" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="D12" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="E12" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="F12" t="s">
-        <v>645</v>
+        <v>660</v>
       </c>
     </row>
     <row r="13">
@@ -2660,19 +2705,19 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="C13" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="D13" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="E13" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="F13" t="s">
-        <v>646</v>
+        <v>661</v>
       </c>
     </row>
     <row r="14">
@@ -2680,19 +2725,19 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="C14" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="D14" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="E14" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="F14" t="s">
-        <v>647</v>
+        <v>662</v>
       </c>
     </row>
     <row r="15">
@@ -2700,19 +2745,19 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="C15" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="D15" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="E15" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="F15" t="s">
-        <v>648</v>
+        <v>663</v>
       </c>
     </row>
     <row r="16">
@@ -2720,19 +2765,19 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="C16" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="D16" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="E16" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="F16" t="s">
-        <v>649</v>
+        <v>664</v>
       </c>
     </row>
     <row r="17">
@@ -2746,7 +2791,7 @@
         <v>320</v>
       </c>
       <c r="D17" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="E17" t="s">
         <v>500</v>
@@ -2766,7 +2811,7 @@
         <v>321</v>
       </c>
       <c r="D18" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="E18" t="s">
         <v>501</v>
@@ -2786,7 +2831,7 @@
         <v>322</v>
       </c>
       <c r="D19" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="E19" t="s">
         <v>502</v>
@@ -2806,7 +2851,7 @@
         <v>323</v>
       </c>
       <c r="D20" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="E20" t="s">
         <v>503</v>
@@ -2826,7 +2871,7 @@
         <v>324</v>
       </c>
       <c r="D21" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="E21" t="s">
         <v>504</v>
@@ -2846,7 +2891,7 @@
         <v>325</v>
       </c>
       <c r="D22" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="E22" t="s">
         <v>505</v>
@@ -2866,7 +2911,7 @@
         <v>326</v>
       </c>
       <c r="D23" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="E23" t="s">
         <v>506</v>
@@ -2886,7 +2931,7 @@
         <v>327</v>
       </c>
       <c r="D24" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="E24" t="s">
         <v>507</v>
@@ -2906,7 +2951,7 @@
         <v>328</v>
       </c>
       <c r="D25" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="E25" t="s">
         <v>508</v>
@@ -2926,7 +2971,7 @@
         <v>329</v>
       </c>
       <c r="D26" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="E26" t="s">
         <v>509</v>
@@ -2946,7 +2991,7 @@
         <v>330</v>
       </c>
       <c r="D27" t="s">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="E27" t="s">
         <v>510</v>
@@ -2966,7 +3011,7 @@
         <v>331</v>
       </c>
       <c r="D28" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="E28" t="s">
         <v>511</v>
@@ -2986,7 +3031,7 @@
         <v>332</v>
       </c>
       <c r="D29" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="E29" t="s">
         <v>512</v>
@@ -3006,7 +3051,7 @@
         <v>333</v>
       </c>
       <c r="D30" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="E30" t="s">
         <v>513</v>
@@ -3026,7 +3071,7 @@
         <v>334</v>
       </c>
       <c r="D31" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="E31" t="s">
         <v>514</v>
@@ -3046,7 +3091,7 @@
         <v>335</v>
       </c>
       <c r="D32" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="E32" t="s">
         <v>515</v>
@@ -3066,7 +3111,7 @@
         <v>336</v>
       </c>
       <c r="D33" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="E33" t="s">
         <v>516</v>
@@ -3086,7 +3131,7 @@
         <v>337</v>
       </c>
       <c r="D34" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="E34" t="s">
         <v>517</v>
@@ -3106,7 +3151,7 @@
         <v>338</v>
       </c>
       <c r="D35" t="s">
-        <v>454</v>
+        <v>476</v>
       </c>
       <c r="E35" t="s">
         <v>518</v>
@@ -3126,7 +3171,7 @@
         <v>339</v>
       </c>
       <c r="D36" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="E36" t="s">
         <v>519</v>
@@ -3146,7 +3191,7 @@
         <v>340</v>
       </c>
       <c r="D37" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="E37" t="s">
         <v>520</v>
@@ -3166,7 +3211,7 @@
         <v>341</v>
       </c>
       <c r="D38" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="E38" t="s">
         <v>521</v>
@@ -3186,7 +3231,7 @@
         <v>342</v>
       </c>
       <c r="D39" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="E39" t="s">
         <v>522</v>
@@ -3206,7 +3251,7 @@
         <v>343</v>
       </c>
       <c r="D40" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="E40" t="s">
         <v>523</v>
@@ -3226,7 +3271,7 @@
         <v>344</v>
       </c>
       <c r="D41" t="s">
-        <v>459</v>
+        <v>479</v>
       </c>
       <c r="E41" t="s">
         <v>524</v>
@@ -3246,7 +3291,7 @@
         <v>345</v>
       </c>
       <c r="D42" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E42" t="s">
         <v>525</v>
@@ -3266,7 +3311,7 @@
         <v>346</v>
       </c>
       <c r="D43" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="E43" t="s">
         <v>526</v>
@@ -3286,7 +3331,7 @@
         <v>347</v>
       </c>
       <c r="D44" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="E44" t="s">
         <v>527</v>
@@ -3306,7 +3351,7 @@
         <v>348</v>
       </c>
       <c r="D45" t="s">
-        <v>456</v>
+        <v>478</v>
       </c>
       <c r="E45" t="s">
         <v>528</v>
@@ -3326,7 +3371,7 @@
         <v>349</v>
       </c>
       <c r="D46" t="s">
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="E46" t="s">
         <v>529</v>
@@ -3346,7 +3391,7 @@
         <v>350</v>
       </c>
       <c r="D47" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="E47" t="s">
         <v>530</v>
@@ -3366,7 +3411,7 @@
         <v>351</v>
       </c>
       <c r="D48" t="s">
-        <v>456</v>
+        <v>478</v>
       </c>
       <c r="E48" t="s">
         <v>531</v>
@@ -3386,7 +3431,7 @@
         <v>352</v>
       </c>
       <c r="D49" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="E49" t="s">
         <v>532</v>
@@ -3406,7 +3451,7 @@
         <v>353</v>
       </c>
       <c r="D50" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="E50" t="s">
         <v>533</v>
@@ -3426,7 +3471,7 @@
         <v>354</v>
       </c>
       <c r="D51" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="E51" t="s">
         <v>534</v>
@@ -3446,7 +3491,7 @@
         <v>355</v>
       </c>
       <c r="D52" t="s">
-        <v>456</v>
+        <v>482</v>
       </c>
       <c r="E52" t="s">
         <v>535</v>
@@ -3466,7 +3511,7 @@
         <v>356</v>
       </c>
       <c r="D53" t="s">
-        <v>456</v>
+        <v>479</v>
       </c>
       <c r="E53" t="s">
         <v>536</v>
@@ -3486,7 +3531,7 @@
         <v>357</v>
       </c>
       <c r="D54" t="s">
-        <v>456</v>
+        <v>483</v>
       </c>
       <c r="E54" t="s">
         <v>537</v>
@@ -3506,7 +3551,7 @@
         <v>358</v>
       </c>
       <c r="D55" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="E55" t="s">
         <v>538</v>
@@ -3526,7 +3571,7 @@
         <v>359</v>
       </c>
       <c r="D56" t="s">
-        <v>456</v>
+        <v>474</v>
       </c>
       <c r="E56" t="s">
         <v>539</v>
@@ -3546,7 +3591,7 @@
         <v>360</v>
       </c>
       <c r="D57" t="s">
-        <v>456</v>
+        <v>484</v>
       </c>
       <c r="E57" t="s">
         <v>540</v>
@@ -3566,7 +3611,7 @@
         <v>361</v>
       </c>
       <c r="D58" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="E58" t="s">
         <v>541</v>
@@ -3586,7 +3631,7 @@
         <v>362</v>
       </c>
       <c r="D59" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="E59" t="s">
         <v>542</v>
@@ -3606,7 +3651,7 @@
         <v>363</v>
       </c>
       <c r="D60" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="E60" t="s">
         <v>543</v>
@@ -3626,7 +3671,7 @@
         <v>364</v>
       </c>
       <c r="D61" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="E61" t="s">
         <v>544</v>
@@ -3646,7 +3691,7 @@
         <v>365</v>
       </c>
       <c r="D62" t="s">
-        <v>459</v>
+        <v>485</v>
       </c>
       <c r="E62" t="s">
         <v>545</v>
@@ -3666,7 +3711,7 @@
         <v>366</v>
       </c>
       <c r="D63" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E63" t="s">
         <v>546</v>
@@ -3686,7 +3731,7 @@
         <v>367</v>
       </c>
       <c r="D64" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E64" t="s">
         <v>547</v>
@@ -3706,7 +3751,7 @@
         <v>368</v>
       </c>
       <c r="D65" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E65" t="s">
         <v>548</v>
@@ -3726,7 +3771,7 @@
         <v>369</v>
       </c>
       <c r="D66" t="s">
-        <v>459</v>
+        <v>486</v>
       </c>
       <c r="E66" t="s">
         <v>549</v>
@@ -3746,7 +3791,7 @@
         <v>370</v>
       </c>
       <c r="D67" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E67" t="s">
         <v>550</v>
@@ -3766,7 +3811,7 @@
         <v>371</v>
       </c>
       <c r="D68" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="E68" t="s">
         <v>551</v>
@@ -3786,7 +3831,7 @@
         <v>372</v>
       </c>
       <c r="D69" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E69" t="s">
         <v>552</v>
@@ -3806,7 +3851,7 @@
         <v>373</v>
       </c>
       <c r="D70" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="E70" t="s">
         <v>553</v>
@@ -3826,7 +3871,7 @@
         <v>374</v>
       </c>
       <c r="D71" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="E71" t="s">
         <v>554</v>
@@ -3846,7 +3891,7 @@
         <v>375</v>
       </c>
       <c r="D72" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="E72" t="s">
         <v>555</v>
@@ -3866,7 +3911,7 @@
         <v>376</v>
       </c>
       <c r="D73" t="s">
-        <v>457</v>
+        <v>479</v>
       </c>
       <c r="E73" t="s">
         <v>556</v>
@@ -3886,7 +3931,7 @@
         <v>377</v>
       </c>
       <c r="D74" t="s">
-        <v>456</v>
+        <v>474</v>
       </c>
       <c r="E74" t="s">
         <v>557</v>
@@ -3906,7 +3951,7 @@
         <v>378</v>
       </c>
       <c r="D75" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="E75" t="s">
         <v>558</v>
@@ -3926,7 +3971,7 @@
         <v>379</v>
       </c>
       <c r="D76" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="E76" t="s">
         <v>559</v>
@@ -3946,7 +3991,7 @@
         <v>380</v>
       </c>
       <c r="D77" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="E77" t="s">
         <v>560</v>
@@ -3966,7 +4011,7 @@
         <v>381</v>
       </c>
       <c r="D78" t="s">
-        <v>463</v>
+        <v>487</v>
       </c>
       <c r="E78" t="s">
         <v>561</v>
@@ -3986,7 +4031,7 @@
         <v>382</v>
       </c>
       <c r="D79" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="E79" t="s">
         <v>562</v>
@@ -4006,7 +4051,7 @@
         <v>383</v>
       </c>
       <c r="D80" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="E80" t="s">
         <v>563</v>
@@ -4026,7 +4071,7 @@
         <v>384</v>
       </c>
       <c r="D81" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="E81" t="s">
         <v>564</v>
@@ -4046,7 +4091,7 @@
         <v>385</v>
       </c>
       <c r="D82" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="E82" t="s">
         <v>565</v>
@@ -4066,7 +4111,7 @@
         <v>386</v>
       </c>
       <c r="D83" t="s">
-        <v>456</v>
+        <v>474</v>
       </c>
       <c r="E83" t="s">
         <v>566</v>
@@ -4086,7 +4131,7 @@
         <v>387</v>
       </c>
       <c r="D84" t="s">
-        <v>464</v>
+        <v>490</v>
       </c>
       <c r="E84" t="s">
         <v>567</v>
@@ -4106,7 +4151,7 @@
         <v>388</v>
       </c>
       <c r="D85" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="E85" t="s">
         <v>568</v>
@@ -4126,7 +4171,7 @@
         <v>389</v>
       </c>
       <c r="D86" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="E86" t="s">
         <v>569</v>
@@ -4146,7 +4191,7 @@
         <v>390</v>
       </c>
       <c r="D87" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E87" t="s">
         <v>570</v>
@@ -4166,7 +4211,7 @@
         <v>391</v>
       </c>
       <c r="D88" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="E88" t="s">
         <v>571</v>
@@ -4186,7 +4231,7 @@
         <v>392</v>
       </c>
       <c r="D89" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="E89" t="s">
         <v>572</v>
@@ -4206,7 +4251,7 @@
         <v>393</v>
       </c>
       <c r="D90" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="E90" t="s">
         <v>573</v>
@@ -4226,7 +4271,7 @@
         <v>394</v>
       </c>
       <c r="D91" t="s">
-        <v>456</v>
+        <v>485</v>
       </c>
       <c r="E91" t="s">
         <v>574</v>
@@ -4246,7 +4291,7 @@
         <v>395</v>
       </c>
       <c r="D92" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="E92" t="s">
         <v>575</v>
@@ -4266,7 +4311,7 @@
         <v>396</v>
       </c>
       <c r="D93" t="s">
-        <v>456</v>
+        <v>478</v>
       </c>
       <c r="E93" t="s">
         <v>576</v>
@@ -4286,7 +4331,7 @@
         <v>397</v>
       </c>
       <c r="D94" t="s">
-        <v>454</v>
+        <v>473</v>
       </c>
       <c r="E94" t="s">
         <v>577</v>
@@ -4306,7 +4351,7 @@
         <v>398</v>
       </c>
       <c r="D95" t="s">
-        <v>458</v>
+        <v>490</v>
       </c>
       <c r="E95" t="s">
         <v>578</v>
@@ -4326,7 +4371,7 @@
         <v>399</v>
       </c>
       <c r="D96" t="s">
-        <v>458</v>
+        <v>483</v>
       </c>
       <c r="E96" t="s">
         <v>579</v>
@@ -4346,7 +4391,7 @@
         <v>400</v>
       </c>
       <c r="D97" t="s">
-        <v>454</v>
+        <v>491</v>
       </c>
       <c r="E97" t="s">
         <v>580</v>
@@ -4366,7 +4411,7 @@
         <v>401</v>
       </c>
       <c r="D98" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="E98" t="s">
         <v>581</v>
@@ -4386,7 +4431,7 @@
         <v>402</v>
       </c>
       <c r="D99" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E99" t="s">
         <v>582</v>
@@ -4406,7 +4451,7 @@
         <v>403</v>
       </c>
       <c r="D100" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="E100" t="s">
         <v>583</v>
@@ -4426,7 +4471,7 @@
         <v>404</v>
       </c>
       <c r="D101" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="E101" t="s">
         <v>584</v>
@@ -4446,7 +4491,7 @@
         <v>405</v>
       </c>
       <c r="D102" t="s">
-        <v>458</v>
+        <v>492</v>
       </c>
       <c r="E102" t="s">
         <v>585</v>
@@ -4466,7 +4511,7 @@
         <v>406</v>
       </c>
       <c r="D103" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="E103" t="s">
         <v>586</v>
@@ -4486,7 +4531,7 @@
         <v>407</v>
       </c>
       <c r="D104" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E104" t="s">
         <v>587</v>
@@ -4503,10 +4548,10 @@
         <v>258</v>
       </c>
       <c r="C105" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="D105" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="E105" t="s">
         <v>588</v>
@@ -4523,10 +4568,10 @@
         <v>259</v>
       </c>
       <c r="C106" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D106" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="E106" t="s">
         <v>589</v>
@@ -4543,10 +4588,10 @@
         <v>260</v>
       </c>
       <c r="C107" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D107" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E107" t="s">
         <v>590</v>
@@ -4563,10 +4608,10 @@
         <v>261</v>
       </c>
       <c r="C108" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D108" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="E108" t="s">
         <v>591</v>
@@ -4583,10 +4628,10 @@
         <v>262</v>
       </c>
       <c r="C109" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D109" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="E109" t="s">
         <v>592</v>
@@ -4603,10 +4648,10 @@
         <v>263</v>
       </c>
       <c r="C110" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D110" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="E110" t="s">
         <v>593</v>
@@ -4623,10 +4668,10 @@
         <v>264</v>
       </c>
       <c r="C111" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D111" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="E111" t="s">
         <v>594</v>
@@ -4643,10 +4688,10 @@
         <v>265</v>
       </c>
       <c r="C112" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D112" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="E112" t="s">
         <v>595</v>
@@ -4663,10 +4708,10 @@
         <v>266</v>
       </c>
       <c r="C113" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D113" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="E113" t="s">
         <v>596</v>
@@ -4683,10 +4728,10 @@
         <v>267</v>
       </c>
       <c r="C114" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D114" t="s">
-        <v>454</v>
+        <v>493</v>
       </c>
       <c r="E114" t="s">
         <v>597</v>
@@ -4703,10 +4748,10 @@
         <v>268</v>
       </c>
       <c r="C115" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D115" t="s">
-        <v>456</v>
+        <v>479</v>
       </c>
       <c r="E115" t="s">
         <v>598</v>
@@ -4723,10 +4768,10 @@
         <v>269</v>
       </c>
       <c r="C116" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D116" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="E116" t="s">
         <v>599</v>
@@ -4743,10 +4788,10 @@
         <v>270</v>
       </c>
       <c r="C117" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D117" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="E117" t="s">
         <v>600</v>
@@ -4763,10 +4808,10 @@
         <v>271</v>
       </c>
       <c r="C118" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D118" t="s">
-        <v>456</v>
+        <v>494</v>
       </c>
       <c r="E118" t="s">
         <v>601</v>
@@ -4783,10 +4828,10 @@
         <v>272</v>
       </c>
       <c r="C119" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D119" t="s">
-        <v>463</v>
+        <v>485</v>
       </c>
       <c r="E119" t="s">
         <v>602</v>
@@ -4803,10 +4848,10 @@
         <v>273</v>
       </c>
       <c r="C120" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D120" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="E120" t="s">
         <v>603</v>
@@ -4826,7 +4871,7 @@
         <v>423</v>
       </c>
       <c r="D121" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="E121" t="s">
         <v>604</v>
@@ -4846,7 +4891,7 @@
         <v>424</v>
       </c>
       <c r="D122" t="s">
-        <v>456</v>
+        <v>491</v>
       </c>
       <c r="E122" t="s">
         <v>605</v>
@@ -4866,7 +4911,7 @@
         <v>425</v>
       </c>
       <c r="D123" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E123" t="s">
         <v>606</v>
@@ -4886,7 +4931,7 @@
         <v>426</v>
       </c>
       <c r="D124" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E124" t="s">
         <v>607</v>
@@ -4906,7 +4951,7 @@
         <v>427</v>
       </c>
       <c r="D125" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E125" t="s">
         <v>608</v>
@@ -4926,7 +4971,7 @@
         <v>428</v>
       </c>
       <c r="D126" t="s">
-        <v>456</v>
+        <v>486</v>
       </c>
       <c r="E126" t="s">
         <v>609</v>
@@ -4946,7 +4991,7 @@
         <v>429</v>
       </c>
       <c r="D127" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="E127" t="s">
         <v>610</v>
@@ -4966,7 +5011,7 @@
         <v>430</v>
       </c>
       <c r="D128" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="E128" t="s">
         <v>611</v>
@@ -4986,7 +5031,7 @@
         <v>431</v>
       </c>
       <c r="D129" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="E129" t="s">
         <v>612</v>
@@ -5006,7 +5051,7 @@
         <v>432</v>
       </c>
       <c r="D130" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E130" t="s">
         <v>613</v>
@@ -5026,7 +5071,7 @@
         <v>433</v>
       </c>
       <c r="D131" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="E131" t="s">
         <v>614</v>
@@ -5046,7 +5091,7 @@
         <v>434</v>
       </c>
       <c r="D132" t="s">
-        <v>454</v>
+        <v>479</v>
       </c>
       <c r="E132" t="s">
         <v>615</v>
@@ -5066,7 +5111,7 @@
         <v>435</v>
       </c>
       <c r="D133" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="E133" t="s">
         <v>616</v>
@@ -5086,7 +5131,7 @@
         <v>436</v>
       </c>
       <c r="D134" t="s">
-        <v>454</v>
+        <v>478</v>
       </c>
       <c r="E134" t="s">
         <v>617</v>
@@ -5106,7 +5151,7 @@
         <v>437</v>
       </c>
       <c r="D135" t="s">
-        <v>454</v>
+        <v>473</v>
       </c>
       <c r="E135" t="s">
         <v>618</v>
@@ -5126,7 +5171,7 @@
         <v>438</v>
       </c>
       <c r="D136" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="E136" t="s">
         <v>619</v>
@@ -5146,7 +5191,7 @@
         <v>439</v>
       </c>
       <c r="D137" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="E137" t="s">
         <v>620</v>
@@ -5166,7 +5211,7 @@
         <v>440</v>
       </c>
       <c r="D138" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="E138" t="s">
         <v>621</v>
@@ -5186,7 +5231,7 @@
         <v>441</v>
       </c>
       <c r="D139" t="s">
-        <v>456</v>
+        <v>495</v>
       </c>
       <c r="E139" t="s">
         <v>622</v>
@@ -5206,7 +5251,7 @@
         <v>442</v>
       </c>
       <c r="D140" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="E140" t="s">
         <v>623</v>
@@ -5226,7 +5271,7 @@
         <v>443</v>
       </c>
       <c r="D141" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="E141" t="s">
         <v>624</v>
@@ -5246,7 +5291,7 @@
         <v>444</v>
       </c>
       <c r="D142" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="E142" t="s">
         <v>625</v>
@@ -5266,7 +5311,7 @@
         <v>445</v>
       </c>
       <c r="D143" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="E143" t="s">
         <v>626</v>
@@ -5286,7 +5331,7 @@
         <v>446</v>
       </c>
       <c r="D144" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="E144" t="s">
         <v>627</v>
@@ -5306,7 +5351,7 @@
         <v>447</v>
       </c>
       <c r="D145" t="s">
-        <v>454</v>
+        <v>490</v>
       </c>
       <c r="E145" t="s">
         <v>628</v>
@@ -5326,7 +5371,7 @@
         <v>448</v>
       </c>
       <c r="D146" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="E146" t="s">
         <v>629</v>
@@ -5346,7 +5391,7 @@
         <v>449</v>
       </c>
       <c r="D147" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="E147" t="s">
         <v>630</v>
@@ -5366,7 +5411,7 @@
         <v>450</v>
       </c>
       <c r="D148" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="E148" t="s">
         <v>631</v>
@@ -5386,7 +5431,7 @@
         <v>451</v>
       </c>
       <c r="D149" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="E149" t="s">
         <v>632</v>
@@ -5406,7 +5451,7 @@
         <v>452</v>
       </c>
       <c r="D150" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="E150" t="s">
         <v>633</v>
@@ -5426,13 +5471,313 @@
         <v>453</v>
       </c>
       <c r="D151" t="s">
-        <v>458</v>
+        <v>486</v>
       </c>
       <c r="E151" t="s">
         <v>634</v>
       </c>
       <c r="F151" t="s">
         <v>784</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>155</v>
+      </c>
+      <c r="B152" t="s">
+        <v>305</v>
+      </c>
+      <c r="C152" t="s">
+        <v>454</v>
+      </c>
+      <c r="D152" t="s">
+        <v>491</v>
+      </c>
+      <c r="E152" t="s">
+        <v>635</v>
+      </c>
+      <c r="F152" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>156</v>
+      </c>
+      <c r="B153" t="s">
+        <v>306</v>
+      </c>
+      <c r="C153" t="s">
+        <v>455</v>
+      </c>
+      <c r="D153" t="s">
+        <v>498</v>
+      </c>
+      <c r="E153" t="s">
+        <v>636</v>
+      </c>
+      <c r="F153" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>157</v>
+      </c>
+      <c r="B154" t="s">
+        <v>307</v>
+      </c>
+      <c r="C154" t="s">
+        <v>456</v>
+      </c>
+      <c r="D154" t="s">
+        <v>471</v>
+      </c>
+      <c r="E154" t="s">
+        <v>637</v>
+      </c>
+      <c r="F154" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>158</v>
+      </c>
+      <c r="B155" t="s">
+        <v>308</v>
+      </c>
+      <c r="C155" t="s">
+        <v>457</v>
+      </c>
+      <c r="D155" t="s">
+        <v>496</v>
+      </c>
+      <c r="E155" t="s">
+        <v>638</v>
+      </c>
+      <c r="F155" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>159</v>
+      </c>
+      <c r="B156" t="s">
+        <v>309</v>
+      </c>
+      <c r="C156" t="s">
+        <v>458</v>
+      </c>
+      <c r="D156" t="s">
+        <v>471</v>
+      </c>
+      <c r="E156" t="s">
+        <v>639</v>
+      </c>
+      <c r="F156" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>160</v>
+      </c>
+      <c r="B157" t="s">
+        <v>310</v>
+      </c>
+      <c r="C157" t="s">
+        <v>459</v>
+      </c>
+      <c r="D157" t="s">
+        <v>499</v>
+      </c>
+      <c r="E157" t="s">
+        <v>640</v>
+      </c>
+      <c r="F157" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>161</v>
+      </c>
+      <c r="B158" t="s">
+        <v>311</v>
+      </c>
+      <c r="C158" t="s">
+        <v>460</v>
+      </c>
+      <c r="D158" t="s">
+        <v>471</v>
+      </c>
+      <c r="E158" t="s">
+        <v>641</v>
+      </c>
+      <c r="F158" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>162</v>
+      </c>
+      <c r="B159" t="s">
+        <v>312</v>
+      </c>
+      <c r="C159" t="s">
+        <v>461</v>
+      </c>
+      <c r="D159" t="s">
+        <v>479</v>
+      </c>
+      <c r="E159" t="s">
+        <v>642</v>
+      </c>
+      <c r="F159" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>163</v>
+      </c>
+      <c r="B160" t="s">
+        <v>313</v>
+      </c>
+      <c r="C160" t="s">
+        <v>462</v>
+      </c>
+      <c r="D160" t="s">
+        <v>469</v>
+      </c>
+      <c r="E160" t="s">
+        <v>643</v>
+      </c>
+      <c r="F160" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>164</v>
+      </c>
+      <c r="B161" t="s">
+        <v>314</v>
+      </c>
+      <c r="C161" t="s">
+        <v>463</v>
+      </c>
+      <c r="D161" t="s">
+        <v>486</v>
+      </c>
+      <c r="E161" t="s">
+        <v>644</v>
+      </c>
+      <c r="F161" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>165</v>
+      </c>
+      <c r="B162" t="s">
+        <v>315</v>
+      </c>
+      <c r="C162" t="s">
+        <v>464</v>
+      </c>
+      <c r="D162" t="s">
+        <v>495</v>
+      </c>
+      <c r="E162" t="s">
+        <v>645</v>
+      </c>
+      <c r="F162" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>166</v>
+      </c>
+      <c r="B163" t="s">
+        <v>316</v>
+      </c>
+      <c r="C163" t="s">
+        <v>465</v>
+      </c>
+      <c r="D163" t="s">
+        <v>485</v>
+      </c>
+      <c r="E163" t="s">
+        <v>646</v>
+      </c>
+      <c r="F163" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>167</v>
+      </c>
+      <c r="B164" t="s">
+        <v>317</v>
+      </c>
+      <c r="C164" t="s">
+        <v>466</v>
+      </c>
+      <c r="D164" t="s">
+        <v>469</v>
+      </c>
+      <c r="E164" t="s">
+        <v>647</v>
+      </c>
+      <c r="F164" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>168</v>
+      </c>
+      <c r="B165" t="s">
+        <v>318</v>
+      </c>
+      <c r="C165" t="s">
+        <v>467</v>
+      </c>
+      <c r="D165" t="s">
+        <v>478</v>
+      </c>
+      <c r="E165" t="s">
+        <v>648</v>
+      </c>
+      <c r="F165" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>169</v>
+      </c>
+      <c r="B166" t="s">
+        <v>319</v>
+      </c>
+      <c r="C166" t="s">
+        <v>468</v>
+      </c>
+      <c r="D166" t="s">
+        <v>473</v>
+      </c>
+      <c r="E166" t="s">
+        <v>649</v>
+      </c>
+      <c r="F166" t="s">
+        <v>799</v>
       </c>
     </row>
   </sheetData>
